--- a/database/industries/siman/seshargh/eps.xlsx
+++ b/database/industries/siman/seshargh/eps.xlsx
@@ -34,6 +34,9 @@
     <t>capital_now</t>
   </si>
   <si>
+    <t>1401</t>
+  </si>
+  <si>
     <t>1400</t>
   </si>
   <si>
@@ -46,7 +49,7 @@
     <t>1397</t>
   </si>
   <si>
-    <t>1396</t>
+    <t>1401/08/25</t>
   </si>
   <si>
     <t>1400/08/29</t>
@@ -59,9 +62,6 @@
   </si>
   <si>
     <t>1397/08/28</t>
-  </si>
-  <si>
-    <t>1396/09/14</t>
   </si>
 </sst>
 </file>
@@ -453,10 +453,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>939</v>
+        <v>1535</v>
       </c>
       <c r="D2">
-        <v>800</v>
+        <v>1380</v>
       </c>
       <c r="E2">
         <v>2653560</v>
@@ -473,10 +473,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>339</v>
+        <v>939</v>
       </c>
       <c r="D3">
-        <v>140</v>
+        <v>800</v>
       </c>
       <c r="E3">
         <v>2653560</v>
@@ -493,10 +493,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>2653560</v>
@@ -513,10 +513,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>317</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>2653560</v>
@@ -533,7 +533,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>-64</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>0</v>
